--- a/biology/Médecine/Hernie_diaphragmatique/Hernie_diaphragmatique.xlsx
+++ b/biology/Médecine/Hernie_diaphragmatique/Hernie_diaphragmatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hernie diaphragmatique est une maladie consistant en un glissement ou une migration d'un organe abdominal vers le thorax à travers un orifice du diaphragme.
 </t>
@@ -511,7 +523,9 @@
           <t>Formes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La hernie peut être acquise ou congénitale.
 Elle peut être classée suivant l'orifice du diaphragme concerné : orifice hiatal, fente de Larrey... Parfois cet orifice est acquis, après un accident de la voie publique par exemple. On parle alors d'éventration diaphragmatique.
@@ -543,7 +557,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes fonctionnels sont en rapport avec l'organe qui a migré, ou avec une compression pulmonaire.
 </t>
@@ -574,9 +590,11 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organe hernié peut s'étrangler dans le trou herniaire, entraînant une obstruction du tube digestif, voire une ischémie de la partie herniée par compression des vaisseaux. Ces complications peuvent être graves, avec un risque vital[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organe hernié peut s'étrangler dans le trou herniaire, entraînant une obstruction du tube digestif, voire une ischémie de la partie herniée par compression des vaisseaux. Ces complications peuvent être graves, avec un risque vital.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiographie du thorax peut montrer l'organe hernié sous forme d'opacité, avec, typiquement, présence en son sein d'un niveau hydro-aérique. L'examen peut être complété par l'ingestion d'un produit de contraste.
-Le scanner thoraco-abdominal permet de visualiser l'organe hernié et l'orifice diaphragmatique responsable de la hernie[2].
+Le scanner thoraco-abdominal permet de visualiser l'organe hernié et l'orifice diaphragmatique responsable de la hernie.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement ne peut être que chirurgical, proposé quand le patient est très handicapé par sa hernie : il consiste en la réintégration des organes abdominaux vers l'abdomen, et en la fermeture du diaphragme, le plus souvent avec une plaque de renfort. Si le patient est asymptomatique, une simple surveillance peut être discutée[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement ne peut être que chirurgical, proposé quand le patient est très handicapé par sa hernie : il consiste en la réintégration des organes abdominaux vers l'abdomen, et en la fermeture du diaphragme, le plus souvent avec une plaque de renfort. Si le patient est asymptomatique, une simple surveillance peut être discutée.
 </t>
         </is>
       </c>
